--- a/Data/EC/NIT-9011508798.xlsx
+++ b/Data/EC/NIT-9011508798.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB9F68D-AAE5-456E-A300-D59FD15C5DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B5490D-CFA1-4D3C-9BF3-7B050508D704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CC3362E-DEF8-42DD-9C8D-0A404096C2F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37FA6315-A3E0-4516-9A02-FF618BDCCEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73089468</t>
+  </si>
+  <si>
+    <t>CELSO ANTONIO GONZALEZ FORTICH</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>73196033</t>
   </si>
   <si>
@@ -74,6 +83,12 @@
     <t>1908</t>
   </si>
   <si>
+    <t>1047421035</t>
+  </si>
+  <si>
+    <t>RICHAR RAFAEL SILGADO VILLALOBOS</t>
+  </si>
+  <si>
     <t>1143342046</t>
   </si>
   <si>
@@ -83,6 +98,15 @@
     <t>2005</t>
   </si>
   <si>
+    <t>92226300</t>
+  </si>
+  <si>
+    <t>ROGER CEDRON RAMIREZ</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>1002392859</t>
   </si>
   <si>
@@ -90,30 +114,6 @@
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>73089468</t>
-  </si>
-  <si>
-    <t>CELSO ANTONIO GONZALEZ FORTICH</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1047421035</t>
-  </si>
-  <si>
-    <t>RICHAR RAFAEL SILGADO VILLALOBOS</t>
-  </si>
-  <si>
-    <t>92226300</t>
-  </si>
-  <si>
-    <t>ROGER CEDRON RAMIREZ</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C01499-95FC-DC0B-16FE-3BD8505EF75B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CE6D8B-5D6D-A0B6-8F31-1FD48C262FEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,28 +878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37662B43-39F1-46BB-BB83-02EE3655D9ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52838783-25A3-4D02-9A1E-FA9771DA153E}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -912,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,8 +945,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -993,8 +993,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,16 +1056,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1600</v>
+        <v>156000</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1079,16 +1079,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>68000</v>
+        <v>1600</v>
       </c>
       <c r="G17" s="18">
-        <v>1700000</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1099,65 +1099,65 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>30430</v>
+        <v>2667</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F19" s="18">
-        <v>156000</v>
+        <v>68000</v>
       </c>
       <c r="G19" s="18">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F20" s="18">
-        <v>2667</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="18">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
         <v>8</v>
       </c>
@@ -1171,16 +1171,16 @@
         <v>25</v>
       </c>
       <c r="F21" s="24">
-        <v>8000</v>
+        <v>30430</v>
       </c>
       <c r="G21" s="24">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="32" t="s">
         <v>34</v>
       </c>

--- a/Data/EC/NIT-9011508798.xlsx
+++ b/Data/EC/NIT-9011508798.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B5490D-CFA1-4D3C-9BF3-7B050508D704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DC5BA2-82B8-4252-BDA8-D9EE8271AAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37FA6315-A3E0-4516-9A02-FF618BDCCEC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48E894CD-1FD3-408E-8F50-0655F972EBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,33 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73196033</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CERVANTES MEJIA</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1143342046</t>
+  </si>
+  <si>
+    <t>LUIS PUENTES VALLE</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1002392859</t>
+  </si>
+  <si>
+    <t>LAURA VANESA RODRIGUEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>73089468</t>
   </si>
   <si>
@@ -74,30 +101,12 @@
     <t>2305</t>
   </si>
   <si>
-    <t>73196033</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CERVANTES MEJIA</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
     <t>1047421035</t>
   </si>
   <si>
     <t>RICHAR RAFAEL SILGADO VILLALOBOS</t>
   </si>
   <si>
-    <t>1143342046</t>
-  </si>
-  <si>
-    <t>LUIS PUENTES VALLE</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>92226300</t>
   </si>
   <si>
@@ -105,15 +114,6 @@
   </si>
   <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>1002392859</t>
-  </si>
-  <si>
-    <t>LAURA VANESA RODRIGUEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>2011</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,22 +212,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CE6D8B-5D6D-A0B6-8F31-1FD48C262FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F713EFF7-8FE9-5F13-1ED7-D1D4C6C46EF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,28 +878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52838783-25A3-4D02-9A1E-FA9771DA153E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCC316-31BE-4ACA-8C32-C3E5CC8C3B20}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -912,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,8 +945,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -993,8 +993,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,16 +1056,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>156000</v>
+        <v>1600</v>
       </c>
       <c r="G16" s="18">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1079,16 +1079,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>1600</v>
+        <v>68000</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>1700000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1099,65 +1099,65 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>2667</v>
+        <v>30430</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>68000</v>
+        <v>156000</v>
       </c>
       <c r="G19" s="18">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" s="18">
-        <v>8000</v>
+        <v>2667</v>
       </c>
       <c r="G20" s="18">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="21" t="s">
         <v>8</v>
       </c>
@@ -1171,16 +1171,16 @@
         <v>25</v>
       </c>
       <c r="F21" s="24">
-        <v>30430</v>
+        <v>8000</v>
       </c>
       <c r="G21" s="24">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="32" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="32" t="s">
         <v>34</v>
       </c>
